--- a/Unity/Assets/Config/Excel/UnionKeJiConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnionKeJiConfig.xlsx
@@ -32,7 +32,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="229">
   <si>
     <t>Id</t>
   </si>
@@ -125,6 +125,9 @@
     <t>升级消耗家族金币</t>
   </si>
   <si>
+    <t>消耗科技点数</t>
+  </si>
+  <si>
     <t>学习消耗道具</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
     <t>CostUnionGold</t>
   </si>
   <si>
+    <t>Point</t>
+  </si>
+  <si>
     <t>LearnCost</t>
   </si>
   <si>
@@ -174,6 +180,9 @@
   </si>
   <si>
     <t>keji_1</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>16;500@10000163;10</t>
@@ -2758,10 +2767,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:ID104"/>
+  <dimension ref="C1:IE104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94:F104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2771,17 +2780,17 @@
     <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
     <col min="6" max="9" width="14.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="19.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24.875" style="2" customWidth="1"/>
-    <col min="14" max="238" width="8.875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="16.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.875" style="2" customWidth="1"/>
+    <col min="15" max="239" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25"/>
     <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="3"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:13">
+    <row r="3" ht="20.1" customHeight="1" spans="3:14">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2815,86 +2824,95 @@
       <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:13">
+      <c r="N3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:14">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:13">
+        <v>21</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="3:14">
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:13">
+        <v>24</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="3:14">
       <c r="C6" s="8">
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -2915,19 +2933,22 @@
         <v>1000000</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="3:14">
       <c r="C7" s="8">
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -2950,19 +2971,22 @@
       <c r="L7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:238">
+      <c r="M7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="3:239">
       <c r="C8" s="8">
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -2983,22 +3007,25 @@
         <v>2000000</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="ID8"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="IE8"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1" spans="3:239">
       <c r="C9" s="8">
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -3019,22 +3046,25 @@
         <v>2500000</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="ID9"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="IE9"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1" spans="3:239">
       <c r="C10" s="8">
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -3055,22 +3085,25 @@
         <v>3000000</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="ID10"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="IE10"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="3:14">
       <c r="C11" s="8">
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -3091,21 +3124,24 @@
         <v>4000000</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="3:239">
       <c r="C12" s="8">
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -3126,22 +3162,25 @@
         <v>5000000</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="ID12"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="IE12"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1" spans="3:239">
       <c r="C13" s="8">
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -3162,22 +3201,25 @@
         <v>6000000</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="ID13"/>
-    </row>
-    <row r="14" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="IE13"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1" spans="3:239">
       <c r="C14" s="8">
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -3198,22 +3240,25 @@
         <v>7000000</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="ID14"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="IE14"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1" spans="3:239">
       <c r="C15" s="8">
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
@@ -3234,22 +3279,25 @@
         <v>8000000</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="ID15"/>
-    </row>
-    <row r="16" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="IE15"/>
+    </row>
+    <row r="16" ht="19.5" customHeight="1" spans="3:239">
       <c r="C16" s="8">
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
@@ -3267,25 +3315,28 @@
         <v>126000</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="ID16"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="3:13">
+        <v>58</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="IE16"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="3:14">
       <c r="C17" s="8">
         <v>10200</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F17" s="8">
         <v>10101</v>
@@ -3306,19 +3357,22 @@
         <v>1000000</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="3:14">
       <c r="C18" s="8">
         <v>10201</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F18" s="8">
         <v>10101</v>
@@ -3341,19 +3395,22 @@
       <c r="L18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:238">
+      <c r="M18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="3:239">
       <c r="C19" s="8">
         <v>10202</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="F19" s="8">
         <v>10101</v>
@@ -3374,22 +3431,25 @@
         <v>2000000</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="ID19"/>
-    </row>
-    <row r="20" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="IE19"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1" spans="3:239">
       <c r="C20" s="8">
         <v>10203</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F20" s="8">
         <v>10101</v>
@@ -3410,22 +3470,25 @@
         <v>2500000</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="ID20"/>
-    </row>
-    <row r="21" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="IE20"/>
+    </row>
+    <row r="21" ht="19.5" customHeight="1" spans="3:239">
       <c r="C21" s="8">
         <v>10204</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F21" s="8">
         <v>10101</v>
@@ -3446,22 +3509,25 @@
         <v>3000000</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="ID21"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="IE21"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="3:14">
       <c r="C22" s="8">
         <v>10205</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F22" s="8">
         <v>10101</v>
@@ -3482,21 +3548,24 @@
         <v>4000000</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" ht="20.1" customHeight="1" spans="3:14">
       <c r="C23" s="8">
         <v>10206</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F23" s="8">
         <v>10101</v>
@@ -3517,21 +3586,24 @@
         <v>5000000</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" ht="20.1" customHeight="1" spans="3:239">
       <c r="C24" s="8">
         <v>10207</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F24" s="8">
         <v>10101</v>
@@ -3552,22 +3624,25 @@
         <v>6000000</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="ID24"/>
-    </row>
-    <row r="25" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="IE24"/>
+    </row>
+    <row r="25" ht="19.5" customHeight="1" spans="3:239">
       <c r="C25" s="8">
         <v>10208</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F25" s="8">
         <v>10101</v>
@@ -3588,22 +3663,25 @@
         <v>7000000</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="ID25"/>
-    </row>
-    <row r="26" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="IE25"/>
+    </row>
+    <row r="26" ht="19.5" customHeight="1" spans="3:239">
       <c r="C26" s="8">
         <v>10209</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F26" s="8">
         <v>10101</v>
@@ -3624,22 +3702,25 @@
         <v>8000000</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="ID26"/>
-    </row>
-    <row r="27" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="IE26"/>
+    </row>
+    <row r="27" ht="19.5" customHeight="1" spans="3:239">
       <c r="C27" s="8">
         <v>10210</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F27" s="8">
         <v>10101</v>
@@ -3657,25 +3738,28 @@
         <v>126000</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="ID27"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="3:13">
+        <v>58</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="IE27"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="3:14">
       <c r="C28" s="8">
         <v>10300</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F28" s="8">
         <v>10101</v>
@@ -3696,19 +3780,22 @@
         <v>1000000</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" ht="20.1" customHeight="1" spans="3:14">
       <c r="C29" s="8">
         <v>10301</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F29" s="8">
         <v>10101</v>
@@ -3731,19 +3818,22 @@
       <c r="L29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:238">
+      <c r="M29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" ht="20.1" customHeight="1" spans="3:239">
       <c r="C30" s="8">
         <v>10302</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="F30" s="8">
         <v>10101</v>
@@ -3764,22 +3854,25 @@
         <v>2000000</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="ID30"/>
-    </row>
-    <row r="31" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="IE30"/>
+    </row>
+    <row r="31" ht="19.5" customHeight="1" spans="3:239">
       <c r="C31" s="8">
         <v>10303</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F31" s="8">
         <v>10101</v>
@@ -3800,22 +3893,25 @@
         <v>2500000</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="ID31"/>
-    </row>
-    <row r="32" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="IE31"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1" spans="3:239">
       <c r="C32" s="8">
         <v>10304</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F32" s="8">
         <v>10101</v>
@@ -3836,22 +3932,25 @@
         <v>3000000</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="ID32"/>
-    </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="IE32"/>
+    </row>
+    <row r="33" ht="20.1" customHeight="1" spans="3:14">
       <c r="C33" s="8">
         <v>10305</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F33" s="8">
         <v>10101</v>
@@ -3872,21 +3971,24 @@
         <v>4000000</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" ht="20.1" customHeight="1" spans="3:239">
       <c r="C34" s="8">
         <v>10306</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F34" s="8">
         <v>10101</v>
@@ -3907,22 +4009,25 @@
         <v>5000000</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="ID34"/>
-    </row>
-    <row r="35" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="IE34"/>
+    </row>
+    <row r="35" ht="19.5" customHeight="1" spans="3:239">
       <c r="C35" s="8">
         <v>10307</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F35" s="8">
         <v>10101</v>
@@ -3943,22 +4048,25 @@
         <v>6000000</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="ID35"/>
-    </row>
-    <row r="36" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="IE35"/>
+    </row>
+    <row r="36" ht="19.5" customHeight="1" spans="3:239">
       <c r="C36" s="8">
         <v>10308</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F36" s="8">
         <v>10101</v>
@@ -3979,22 +4087,25 @@
         <v>7000000</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="ID36"/>
-    </row>
-    <row r="37" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="IE36"/>
+    </row>
+    <row r="37" ht="19.5" customHeight="1" spans="3:239">
       <c r="C37" s="8">
         <v>10309</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F37" s="8">
         <v>10101</v>
@@ -4015,22 +4126,25 @@
         <v>8000000</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="ID37"/>
-    </row>
-    <row r="38" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="IE37"/>
+    </row>
+    <row r="38" ht="19.5" customHeight="1" spans="3:239">
       <c r="C38" s="8">
         <v>10310</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F38" s="8">
         <v>10101</v>
@@ -4048,25 +4162,28 @@
         <v>126000</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="ID38"/>
-    </row>
-    <row r="39" ht="22.5" customHeight="1" spans="3:13">
+        <v>58</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="IE38"/>
+    </row>
+    <row r="39" ht="22.5" customHeight="1" spans="3:14">
       <c r="C39" s="8">
         <v>10400</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F39" s="8">
         <v>10201</v>
@@ -4087,19 +4204,22 @@
         <v>1000000</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="11"/>
-    </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" ht="20.1" customHeight="1" spans="3:14">
       <c r="C40" s="8">
         <v>10401</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F40" s="8">
         <v>10201</v>
@@ -4122,19 +4242,22 @@
       <c r="L40" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M40" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:238">
+      <c r="M40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" ht="20.1" customHeight="1" spans="3:239">
       <c r="C41" s="8">
         <v>10402</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="F41" s="8">
         <v>10201</v>
@@ -4155,22 +4278,25 @@
         <v>2000000</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="ID41"/>
-    </row>
-    <row r="42" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="IE41"/>
+    </row>
+    <row r="42" ht="19.5" customHeight="1" spans="3:239">
       <c r="C42" s="8">
         <v>10403</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F42" s="8">
         <v>10201</v>
@@ -4191,22 +4317,25 @@
         <v>2500000</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="ID42"/>
-    </row>
-    <row r="43" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="IE42"/>
+    </row>
+    <row r="43" ht="19.5" customHeight="1" spans="3:239">
       <c r="C43" s="8">
         <v>10404</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F43" s="8">
         <v>10201</v>
@@ -4227,22 +4356,25 @@
         <v>3000000</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="ID43"/>
-    </row>
-    <row r="44" ht="22.5" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="IE43"/>
+    </row>
+    <row r="44" ht="22.5" customHeight="1" spans="3:14">
       <c r="C44" s="8">
         <v>10405</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F44" s="8">
         <v>10201</v>
@@ -4263,21 +4395,24 @@
         <v>4000000</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" ht="20.1" customHeight="1" spans="3:14">
       <c r="C45" s="8">
         <v>10406</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F45" s="8">
         <v>10201</v>
@@ -4298,21 +4433,24 @@
         <v>5000000</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" ht="20.1" customHeight="1" spans="3:239">
       <c r="C46" s="8">
         <v>10407</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F46" s="8">
         <v>10201</v>
@@ -4333,22 +4471,25 @@
         <v>6000000</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="ID46"/>
-    </row>
-    <row r="47" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="IE46"/>
+    </row>
+    <row r="47" ht="19.5" customHeight="1" spans="3:239">
       <c r="C47" s="8">
         <v>10408</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F47" s="8">
         <v>10201</v>
@@ -4369,22 +4510,25 @@
         <v>7000000</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="ID47"/>
-    </row>
-    <row r="48" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="IE47"/>
+    </row>
+    <row r="48" ht="19.5" customHeight="1" spans="3:239">
       <c r="C48" s="8">
         <v>10409</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F48" s="8">
         <v>10201</v>
@@ -4405,22 +4549,25 @@
         <v>8000000</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="ID48"/>
-    </row>
-    <row r="49" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="IE48"/>
+    </row>
+    <row r="49" ht="19.5" customHeight="1" spans="3:239">
       <c r="C49" s="8">
         <v>10410</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F49" s="8">
         <v>10201</v>
@@ -4438,28 +4585,31 @@
         <v>126000</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="ID49"/>
-    </row>
-    <row r="50" ht="22.5" customHeight="1" spans="3:13">
+        <v>58</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="IE49"/>
+    </row>
+    <row r="50" ht="22.5" customHeight="1" spans="3:14">
       <c r="C50" s="8">
         <v>10500</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G50" s="8">
         <v>10501</v>
@@ -4477,22 +4627,25 @@
         <v>1000000</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M50" s="11"/>
-    </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" ht="20.1" customHeight="1" spans="3:14">
       <c r="C51" s="8">
         <v>10501</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G51" s="8">
         <v>10502</v>
@@ -4512,22 +4665,25 @@
       <c r="L51" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M51" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:238">
+      <c r="M51" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" ht="20.1" customHeight="1" spans="3:239">
       <c r="C52" s="8">
         <v>10502</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="G52" s="8">
         <v>10503</v>
@@ -4545,25 +4701,28 @@
         <v>2000000</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="ID52"/>
-    </row>
-    <row r="53" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="IE52"/>
+    </row>
+    <row r="53" ht="19.5" customHeight="1" spans="3:239">
       <c r="C53" s="8">
         <v>10503</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G53" s="8">
         <v>10504</v>
@@ -4581,25 +4740,28 @@
         <v>2500000</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M53" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="ID53"/>
-    </row>
-    <row r="54" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="IE53"/>
+    </row>
+    <row r="54" ht="19.5" customHeight="1" spans="3:239">
       <c r="C54" s="8">
         <v>10504</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G54" s="8">
         <v>10505</v>
@@ -4617,25 +4779,28 @@
         <v>3000000</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="ID54"/>
-    </row>
-    <row r="55" ht="22.5" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="IE54"/>
+    </row>
+    <row r="55" ht="22.5" customHeight="1" spans="3:14">
       <c r="C55" s="8">
         <v>10505</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G55" s="8">
         <v>10506</v>
@@ -4653,24 +4818,27 @@
         <v>4000000</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M55" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" ht="20.1" customHeight="1" spans="3:14">
       <c r="C56" s="8">
         <v>10506</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G56" s="8">
         <v>10507</v>
@@ -4688,24 +4856,27 @@
         <v>5000000</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" ht="20.1" customHeight="1" spans="3:239">
       <c r="C57" s="8">
         <v>10507</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G57" s="8">
         <v>10508</v>
@@ -4723,25 +4894,28 @@
         <v>6000000</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="ID57"/>
-    </row>
-    <row r="58" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="IE57"/>
+    </row>
+    <row r="58" ht="19.5" customHeight="1" spans="3:239">
       <c r="C58" s="8">
         <v>10508</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G58" s="8">
         <v>10509</v>
@@ -4759,25 +4933,28 @@
         <v>7000000</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="ID58"/>
-    </row>
-    <row r="59" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="IE58"/>
+    </row>
+    <row r="59" ht="19.5" customHeight="1" spans="3:239">
       <c r="C59" s="8">
         <v>10509</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G59" s="8">
         <v>10510</v>
@@ -4795,25 +4972,28 @@
         <v>8000000</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="ID59"/>
-    </row>
-    <row r="60" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="IE59"/>
+    </row>
+    <row r="60" ht="19.5" customHeight="1" spans="3:239">
       <c r="C60" s="8">
         <v>10510</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G60" s="8">
         <v>0</v>
@@ -4828,25 +5008,28 @@
         <v>126000</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="ID60"/>
-    </row>
-    <row r="61" ht="22.5" customHeight="1" spans="3:13">
+        <v>58</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="IE60"/>
+    </row>
+    <row r="61" ht="22.5" customHeight="1" spans="3:14">
       <c r="C61" s="8">
         <v>10600</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F61" s="8">
         <v>10301</v>
@@ -4867,19 +5050,22 @@
         <v>1000000</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M61" s="11"/>
-    </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="11"/>
+    </row>
+    <row r="62" ht="20.1" customHeight="1" spans="3:14">
       <c r="C62" s="8">
         <v>10601</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F62" s="8">
         <v>10301</v>
@@ -4902,19 +5088,22 @@
       <c r="L62" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M62" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:238">
+      <c r="M62" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" ht="20.1" customHeight="1" spans="3:239">
       <c r="C63" s="8">
         <v>10602</v>
       </c>
       <c r="D63" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="F63" s="8">
         <v>10301</v>
@@ -4935,22 +5124,25 @@
         <v>2000000</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="ID63"/>
-    </row>
-    <row r="64" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="IE63"/>
+    </row>
+    <row r="64" ht="19.5" customHeight="1" spans="3:239">
       <c r="C64" s="8">
         <v>10603</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F64" s="8">
         <v>10301</v>
@@ -4971,22 +5163,25 @@
         <v>2500000</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M64" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="ID64"/>
-    </row>
-    <row r="65" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="IE64"/>
+    </row>
+    <row r="65" ht="19.5" customHeight="1" spans="3:239">
       <c r="C65" s="8">
         <v>10604</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F65" s="8">
         <v>10301</v>
@@ -5007,22 +5202,25 @@
         <v>3000000</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M65" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="ID65"/>
-    </row>
-    <row r="66" ht="22.5" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="IE65"/>
+    </row>
+    <row r="66" ht="22.5" customHeight="1" spans="3:14">
       <c r="C66" s="8">
         <v>10605</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F66" s="8">
         <v>10301</v>
@@ -5043,21 +5241,24 @@
         <v>4000000</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" ht="20.1" customHeight="1" spans="3:14">
       <c r="C67" s="8">
         <v>10606</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F67" s="8">
         <v>10301</v>
@@ -5078,21 +5279,24 @@
         <v>5000000</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:239">
       <c r="C68" s="8">
         <v>10607</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F68" s="8">
         <v>10301</v>
@@ -5113,22 +5317,25 @@
         <v>6000000</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="ID68"/>
-    </row>
-    <row r="69" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="IE68"/>
+    </row>
+    <row r="69" ht="19.5" customHeight="1" spans="3:239">
       <c r="C69" s="8">
         <v>10608</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F69" s="8">
         <v>10301</v>
@@ -5149,22 +5356,25 @@
         <v>7000000</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M69" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="ID69"/>
-    </row>
-    <row r="70" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="IE69"/>
+    </row>
+    <row r="70" ht="19.5" customHeight="1" spans="3:239">
       <c r="C70" s="8">
         <v>10609</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F70" s="8">
         <v>10301</v>
@@ -5185,22 +5395,25 @@
         <v>8000000</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="ID70"/>
-    </row>
-    <row r="71" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="IE70"/>
+    </row>
+    <row r="71" ht="19.5" customHeight="1" spans="3:239">
       <c r="C71" s="8">
         <v>10610</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F71" s="8">
         <v>10301</v>
@@ -5218,28 +5431,31 @@
         <v>126000</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M71" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="ID71"/>
-    </row>
-    <row r="72" ht="22.5" customHeight="1" spans="3:13">
+        <v>58</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="IE71"/>
+    </row>
+    <row r="72" ht="22.5" customHeight="1" spans="3:14">
       <c r="C72" s="8">
         <v>10700</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G72" s="8">
         <v>10701</v>
@@ -5257,22 +5473,25 @@
         <v>1000000</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" ht="20.1" customHeight="1" spans="3:14">
       <c r="C73" s="8">
         <v>10701</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G73" s="8">
         <v>10702</v>
@@ -5292,22 +5511,25 @@
       <c r="L73" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M73" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:238">
+      <c r="M73" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" ht="20.1" customHeight="1" spans="3:239">
       <c r="C74" s="8">
         <v>10702</v>
       </c>
       <c r="D74" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="G74" s="8">
         <v>10703</v>
@@ -5325,25 +5547,28 @@
         <v>2000000</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M74" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="ID74"/>
-    </row>
-    <row r="75" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="IE74"/>
+    </row>
+    <row r="75" ht="19.5" customHeight="1" spans="3:239">
       <c r="C75" s="8">
         <v>10703</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G75" s="8">
         <v>10704</v>
@@ -5361,25 +5586,28 @@
         <v>2500000</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="ID75"/>
-    </row>
-    <row r="76" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="IE75"/>
+    </row>
+    <row r="76" ht="19.5" customHeight="1" spans="3:239">
       <c r="C76" s="8">
         <v>10704</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G76" s="8">
         <v>10705</v>
@@ -5397,25 +5625,28 @@
         <v>3000000</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="ID76"/>
-    </row>
-    <row r="77" ht="22.5" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="IE76"/>
+    </row>
+    <row r="77" ht="22.5" customHeight="1" spans="3:14">
       <c r="C77" s="8">
         <v>10705</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G77" s="8">
         <v>10706</v>
@@ -5433,24 +5664,27 @@
         <v>4000000</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M77" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" ht="20.1" customHeight="1" spans="3:14">
       <c r="C78" s="8">
         <v>10706</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G78" s="8">
         <v>10707</v>
@@ -5468,24 +5702,27 @@
         <v>5000000</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M78" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" ht="20.1" customHeight="1" spans="3:239">
       <c r="C79" s="8">
         <v>10707</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G79" s="8">
         <v>10708</v>
@@ -5503,25 +5740,28 @@
         <v>6000000</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M79" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="ID79"/>
-    </row>
-    <row r="80" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="IE79"/>
+    </row>
+    <row r="80" ht="19.5" customHeight="1" spans="3:239">
       <c r="C80" s="8">
         <v>10708</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G80" s="8">
         <v>10709</v>
@@ -5539,25 +5779,28 @@
         <v>7000000</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M80" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="ID80"/>
-    </row>
-    <row r="81" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="IE80"/>
+    </row>
+    <row r="81" ht="19.5" customHeight="1" spans="3:239">
       <c r="C81" s="8">
         <v>10709</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G81" s="8">
         <v>10710</v>
@@ -5575,25 +5818,28 @@
         <v>8000000</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M81" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="ID81"/>
-    </row>
-    <row r="82" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="IE81"/>
+    </row>
+    <row r="82" ht="19.5" customHeight="1" spans="3:239">
       <c r="C82" s="8">
         <v>10710</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G82" s="8">
         <v>0</v>
@@ -5608,28 +5854,31 @@
         <v>126000</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M82" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="ID82"/>
-    </row>
-    <row r="83" ht="22.5" customHeight="1" spans="3:13">
+        <v>58</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="IE82"/>
+    </row>
+    <row r="83" ht="22.5" customHeight="1" spans="3:14">
       <c r="C83" s="8">
         <v>10800</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G83" s="8">
         <v>10801</v>
@@ -5647,22 +5896,25 @@
         <v>1000000</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M83" s="11"/>
-    </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N83" s="11"/>
+    </row>
+    <row r="84" ht="20.1" customHeight="1" spans="3:14">
       <c r="C84" s="8">
         <v>10801</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G84" s="8">
         <v>10802</v>
@@ -5682,22 +5934,25 @@
       <c r="L84" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M84" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:238">
+      <c r="M84" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:239">
       <c r="C85" s="8">
         <v>10802</v>
       </c>
       <c r="D85" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="G85" s="8">
         <v>10803</v>
@@ -5715,25 +5970,28 @@
         <v>2000000</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M85" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="ID85"/>
-    </row>
-    <row r="86" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="IE85"/>
+    </row>
+    <row r="86" ht="19.5" customHeight="1" spans="3:239">
       <c r="C86" s="8">
         <v>10803</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G86" s="8">
         <v>10804</v>
@@ -5751,25 +6009,28 @@
         <v>2500000</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M86" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="ID86"/>
-    </row>
-    <row r="87" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M86" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="IE86"/>
+    </row>
+    <row r="87" ht="19.5" customHeight="1" spans="3:239">
       <c r="C87" s="8">
         <v>10804</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G87" s="8">
         <v>10805</v>
@@ -5787,25 +6048,28 @@
         <v>3000000</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M87" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="ID87"/>
-    </row>
-    <row r="88" ht="22.5" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="IE87"/>
+    </row>
+    <row r="88" ht="22.5" customHeight="1" spans="3:14">
       <c r="C88" s="8">
         <v>10805</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G88" s="8">
         <v>10806</v>
@@ -5823,24 +6087,27 @@
         <v>4000000</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M88" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+      <c r="M88" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" ht="20.1" customHeight="1" spans="3:14">
       <c r="C89" s="8">
         <v>10806</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G89" s="8">
         <v>10807</v>
@@ -5858,24 +6125,27 @@
         <v>5000000</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M89" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" ht="20.1" customHeight="1" spans="3:239">
       <c r="C90" s="8">
         <v>10807</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G90" s="8">
         <v>10808</v>
@@ -5893,25 +6163,28 @@
         <v>6000000</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M90" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="ID90"/>
-    </row>
-    <row r="91" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="IE90"/>
+    </row>
+    <row r="91" ht="19.5" customHeight="1" spans="3:239">
       <c r="C91" s="8">
         <v>10808</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G91" s="8">
         <v>10809</v>
@@ -5929,25 +6202,28 @@
         <v>7000000</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M91" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="ID91"/>
-    </row>
-    <row r="92" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="IE91"/>
+    </row>
+    <row r="92" ht="19.5" customHeight="1" spans="3:239">
       <c r="C92" s="8">
         <v>10809</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G92" s="8">
         <v>10810</v>
@@ -5965,25 +6241,28 @@
         <v>8000000</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M92" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="ID92"/>
-    </row>
-    <row r="93" ht="19.5" customHeight="1" spans="3:238">
+        <v>28</v>
+      </c>
+      <c r="M92" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="IE92"/>
+    </row>
+    <row r="93" ht="19.5" customHeight="1" spans="3:239">
       <c r="C93" s="8">
         <v>10810</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G93" s="8">
         <v>0</v>
@@ -5998,28 +6277,31 @@
         <v>126000</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M93" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="ID93"/>
-    </row>
-    <row r="94" customFormat="1" ht="22.5" customHeight="1" spans="3:238">
+        <v>58</v>
+      </c>
+      <c r="M93" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="IE93"/>
+    </row>
+    <row r="94" customFormat="1" ht="22.5" customHeight="1" spans="3:239">
       <c r="C94" s="8">
         <v>10900</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G94" s="8">
         <v>10901</v>
@@ -6037,10 +6319,12 @@
         <v>1000000</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M94" s="11"/>
-      <c r="N94" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="M94" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N94" s="11"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -6265,19 +6549,20 @@
       <c r="IB94" s="2"/>
       <c r="IC94" s="2"/>
       <c r="ID94" s="2"/>
-    </row>
-    <row r="95" customFormat="1" ht="20.1" customHeight="1" spans="3:238">
+      <c r="IE94" s="2"/>
+    </row>
+    <row r="95" customFormat="1" ht="20.1" customHeight="1" spans="3:239">
       <c r="C95" s="8">
         <v>10901</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G95" s="8">
         <v>10902</v>
@@ -6297,10 +6582,12 @@
       <c r="L95" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M95" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="N95" s="2"/>
+      <c r="M95" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>198</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -6525,19 +6812,20 @@
       <c r="IB95" s="2"/>
       <c r="IC95" s="2"/>
       <c r="ID95" s="2"/>
-    </row>
-    <row r="96" customFormat="1" ht="20.1" customHeight="1" spans="3:237">
+      <c r="IE95" s="2"/>
+    </row>
+    <row r="96" customFormat="1" ht="20.1" customHeight="1" spans="3:238">
       <c r="C96" s="8">
         <v>10902</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G96" s="8">
         <v>10903</v>
@@ -6555,12 +6843,14 @@
         <v>2000000</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M96" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="M96" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -6784,19 +7074,20 @@
       <c r="IA96" s="2"/>
       <c r="IB96" s="2"/>
       <c r="IC96" s="2"/>
-    </row>
-    <row r="97" customFormat="1" ht="19.5" customHeight="1" spans="3:237">
+      <c r="ID96" s="2"/>
+    </row>
+    <row r="97" customFormat="1" ht="19.5" customHeight="1" spans="3:238">
       <c r="C97" s="8">
         <v>10903</v>
       </c>
       <c r="D97" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F97" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="G97" s="8">
         <v>10904</v>
@@ -6814,12 +7105,14 @@
         <v>2500000</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M97" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="M97" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -7043,19 +7336,20 @@
       <c r="IA97" s="2"/>
       <c r="IB97" s="2"/>
       <c r="IC97" s="2"/>
-    </row>
-    <row r="98" customFormat="1" ht="19.5" customHeight="1" spans="3:237">
+      <c r="ID97" s="2"/>
+    </row>
+    <row r="98" customFormat="1" ht="19.5" customHeight="1" spans="3:238">
       <c r="C98" s="8">
         <v>10904</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G98" s="8">
         <v>10905</v>
@@ -7073,12 +7367,14 @@
         <v>3000000</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M98" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -7302,19 +7598,20 @@
       <c r="IA98" s="2"/>
       <c r="IB98" s="2"/>
       <c r="IC98" s="2"/>
-    </row>
-    <row r="99" customFormat="1" ht="22.5" customHeight="1" spans="3:238">
+      <c r="ID98" s="2"/>
+    </row>
+    <row r="99" customFormat="1" ht="22.5" customHeight="1" spans="3:239">
       <c r="C99" s="8">
         <v>10905</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G99" s="8">
         <v>10906</v>
@@ -7332,12 +7629,14 @@
         <v>4000000</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M99" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="M99" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -7562,19 +7861,20 @@
       <c r="IB99" s="2"/>
       <c r="IC99" s="2"/>
       <c r="ID99" s="2"/>
-    </row>
-    <row r="100" customFormat="1" ht="20.1" customHeight="1" spans="3:238">
+      <c r="IE99" s="2"/>
+    </row>
+    <row r="100" customFormat="1" ht="20.1" customHeight="1" spans="3:239">
       <c r="C100" s="8">
         <v>10906</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G100" s="8">
         <v>10907</v>
@@ -7592,12 +7892,14 @@
         <v>5000000</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M100" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -7822,19 +8124,20 @@
       <c r="IB100" s="2"/>
       <c r="IC100" s="2"/>
       <c r="ID100" s="2"/>
-    </row>
-    <row r="101" customFormat="1" ht="20.1" customHeight="1" spans="3:237">
+      <c r="IE100" s="2"/>
+    </row>
+    <row r="101" customFormat="1" ht="20.1" customHeight="1" spans="3:238">
       <c r="C101" s="8">
         <v>10907</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G101" s="8">
         <v>10908</v>
@@ -7852,12 +8155,14 @@
         <v>6000000</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M101" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N101" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -8081,19 +8386,20 @@
       <c r="IA101" s="2"/>
       <c r="IB101" s="2"/>
       <c r="IC101" s="2"/>
-    </row>
-    <row r="102" customFormat="1" ht="19.5" customHeight="1" spans="3:237">
+      <c r="ID101" s="2"/>
+    </row>
+    <row r="102" customFormat="1" ht="19.5" customHeight="1" spans="3:238">
       <c r="C102" s="8">
         <v>10908</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G102" s="8">
         <v>10909</v>
@@ -8111,12 +8417,14 @@
         <v>7000000</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M102" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>212</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -8340,19 +8648,20 @@
       <c r="IA102" s="2"/>
       <c r="IB102" s="2"/>
       <c r="IC102" s="2"/>
-    </row>
-    <row r="103" customFormat="1" ht="19.5" customHeight="1" spans="3:237">
+      <c r="ID102" s="2"/>
+    </row>
+    <row r="103" customFormat="1" ht="19.5" customHeight="1" spans="3:238">
       <c r="C103" s="8">
         <v>10909</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G103" s="8">
         <v>10910</v>
@@ -8370,12 +8679,14 @@
         <v>8000000</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M103" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="M103" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -8599,19 +8910,20 @@
       <c r="IA103" s="2"/>
       <c r="IB103" s="2"/>
       <c r="IC103" s="2"/>
-    </row>
-    <row r="104" customFormat="1" ht="19.5" customHeight="1" spans="3:237">
+      <c r="ID103" s="2"/>
+    </row>
+    <row r="104" customFormat="1" ht="19.5" customHeight="1" spans="3:238">
       <c r="C104" s="8">
         <v>10910</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G104" s="8">
         <v>0</v>
@@ -8626,15 +8938,17 @@
         <v>126000</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M104" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>216</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -8858,6 +9172,7 @@
       <c r="IA104" s="2"/>
       <c r="IB104" s="2"/>
       <c r="IC104" s="2"/>
+      <c r="ID104" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/UnionKeJiConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnionKeJiConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B12E4-CD69-4054-A08A-A2D3585E9D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115EC373-CED4-481A-A999-6FBE9E31B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionKeJiProto" sheetId="1" r:id="rId1"/>
@@ -175,58 +175,28 @@
     <t>1</t>
   </si>
   <si>
-    <t>16;500@10000163;10</t>
-  </si>
-  <si>
-    <t>16;750@10000163;15</t>
-  </si>
-  <si>
     <t>220103;0.01</t>
   </si>
   <si>
-    <t>16;1000@10000163;20</t>
-  </si>
-  <si>
     <t>220103;0.02</t>
   </si>
   <si>
-    <t>16;1300@10000163;25</t>
-  </si>
-  <si>
     <t>220103;0.03</t>
   </si>
   <si>
-    <t>16;1600@10000163;30</t>
-  </si>
-  <si>
     <t>220103;0.04</t>
   </si>
   <si>
-    <t>16;2000@10000163;35</t>
-  </si>
-  <si>
     <t>220103;0.05</t>
   </si>
   <si>
-    <t>16;2400@10000163;40</t>
-  </si>
-  <si>
     <t>220103;0.06</t>
   </si>
   <si>
-    <t>16;2800@10000163;45</t>
-  </si>
-  <si>
     <t>220103;0.07</t>
   </si>
   <si>
-    <t>16;3200@10000163;50</t>
-  </si>
-  <si>
     <t>220103;0.08</t>
-  </si>
-  <si>
-    <t>16;3600@10000163;60</t>
   </si>
   <si>
     <t>220103;0.09</t>
@@ -782,6 +752,37 @@
   </si>
   <si>
     <t>怪物技能减伤10级</t>
+  </si>
+  <si>
+    <t>16;500@1;100000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;750@1;150000</t>
+  </si>
+  <si>
+    <t>16;1000@1;200000</t>
+  </si>
+  <si>
+    <t>16;1300@1;250000</t>
+  </si>
+  <si>
+    <t>16;1600@1;300000</t>
+  </si>
+  <si>
+    <t>16;2000@1;350000</t>
+  </si>
+  <si>
+    <t>16;2400@1;400000</t>
+  </si>
+  <si>
+    <t>16;2800@1;450000</t>
+  </si>
+  <si>
+    <t>16;3200@1;500000</t>
+  </si>
+  <si>
+    <t>16;3600@1;600000</t>
   </si>
 </sst>
 </file>
@@ -961,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -989,6 +990,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2146,10 +2150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IE104"/>
+  <dimension ref="C1:IC104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2162,11 +2166,11 @@
     <col min="11" max="12" width="16.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="21.25" style="2" customWidth="1"/>
     <col min="14" max="14" width="24.875" style="2" customWidth="1"/>
-    <col min="15" max="239" width="8.875" style="2" customWidth="1"/>
+    <col min="15" max="237" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:239" s="1" customFormat="1" ht="14.25"/>
-    <row r="3" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="3:237" s="1" customFormat="1" ht="14.25"/>
+    <row r="3" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
@@ -2280,12 +2284,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7">
         <v>10100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>26</v>
@@ -2311,17 +2315,17 @@
       <c r="L6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>28</v>
+      <c r="M6" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="7">
         <v>10101</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>26</v>
@@ -2347,19 +2351,19 @@
       <c r="L7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>29</v>
+      <c r="M7" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="7">
         <v>10102</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>26</v>
@@ -2385,20 +2389,20 @@
       <c r="L8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>31</v>
+      <c r="M8" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="IE8"/>
-    </row>
-    <row r="9" spans="3:239" ht="19.5" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="IC8"/>
+    </row>
+    <row r="9" spans="3:237" ht="19.5" customHeight="1">
       <c r="C9" s="7">
         <v>10103</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>26</v>
@@ -2424,20 +2428,20 @@
       <c r="L9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>33</v>
+      <c r="M9" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="IE9"/>
-    </row>
-    <row r="10" spans="3:239" ht="19.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="IC9"/>
+    </row>
+    <row r="10" spans="3:237" ht="19.5" customHeight="1">
       <c r="C10" s="7">
         <v>10104</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>26</v>
@@ -2463,20 +2467,20 @@
       <c r="L10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>35</v>
+      <c r="M10" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="IE10"/>
-    </row>
-    <row r="11" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="IC10"/>
+    </row>
+    <row r="11" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="7">
         <v>10105</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>26</v>
@@ -2502,19 +2506,19 @@
       <c r="L11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>37</v>
+      <c r="M11" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="7">
         <v>10106</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>26</v>
@@ -2540,20 +2544,20 @@
       <c r="L12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="9" t="s">
-        <v>39</v>
+      <c r="M12" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="IE12"/>
-    </row>
-    <row r="13" spans="3:239" ht="19.5" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="IC12"/>
+    </row>
+    <row r="13" spans="3:237" ht="19.5" customHeight="1">
       <c r="C13" s="7">
         <v>10107</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>26</v>
@@ -2579,20 +2583,20 @@
       <c r="L13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>41</v>
+      <c r="M13" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="IE13"/>
-    </row>
-    <row r="14" spans="3:239" ht="19.5" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="IC13"/>
+    </row>
+    <row r="14" spans="3:237" ht="19.5" customHeight="1">
       <c r="C14" s="7">
         <v>10108</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>26</v>
@@ -2618,20 +2622,20 @@
       <c r="L14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>43</v>
+      <c r="M14" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="IE14"/>
-    </row>
-    <row r="15" spans="3:239" ht="19.5" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="IC14"/>
+    </row>
+    <row r="15" spans="3:237" ht="19.5" customHeight="1">
       <c r="C15" s="7">
         <v>10109</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>26</v>
@@ -2657,20 +2661,20 @@
       <c r="L15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>45</v>
+      <c r="M15" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="IE15"/>
-    </row>
-    <row r="16" spans="3:239" ht="19.5" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="IC15"/>
+    </row>
+    <row r="16" spans="3:237" ht="19.5" customHeight="1">
       <c r="C16" s="7">
         <v>10110</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>26</v>
@@ -2691,28 +2695,28 @@
         <v>126000</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="IE16"/>
-    </row>
-    <row r="17" spans="3:239" ht="22.5" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="IC16"/>
+    </row>
+    <row r="17" spans="3:237" ht="22.5" customHeight="1">
       <c r="C17" s="7">
         <v>10200</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F17" s="7">
         <v>10101</v>
@@ -2735,20 +2739,20 @@
       <c r="L17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>28</v>
+      <c r="M17" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7">
         <v>10201</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7">
         <v>10101</v>
@@ -2771,22 +2775,22 @@
       <c r="L18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>29</v>
+      <c r="M18" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
         <v>10202</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7">
         <v>10101</v>
@@ -2809,23 +2813,23 @@
       <c r="L19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>31</v>
+      <c r="M19" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="IE19"/>
-    </row>
-    <row r="20" spans="3:239" ht="19.5" customHeight="1">
+        <v>41</v>
+      </c>
+      <c r="IC19"/>
+    </row>
+    <row r="20" spans="3:237" ht="19.5" customHeight="1">
       <c r="C20" s="7">
         <v>10203</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F20" s="7">
         <v>10101</v>
@@ -2848,23 +2852,23 @@
       <c r="L20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="9" t="s">
-        <v>33</v>
+      <c r="M20" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="IE20"/>
-    </row>
-    <row r="21" spans="3:239" ht="19.5" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="IC20"/>
+    </row>
+    <row r="21" spans="3:237" ht="19.5" customHeight="1">
       <c r="C21" s="7">
         <v>10204</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7">
         <v>10101</v>
@@ -2887,23 +2891,23 @@
       <c r="L21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>35</v>
+      <c r="M21" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="IE21"/>
-    </row>
-    <row r="22" spans="3:239" ht="22.5" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="IC21"/>
+    </row>
+    <row r="22" spans="3:237" ht="22.5" customHeight="1">
       <c r="C22" s="7">
         <v>10205</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F22" s="7">
         <v>10101</v>
@@ -2926,22 +2930,22 @@
       <c r="L22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>37</v>
+      <c r="M22" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="7">
         <v>10206</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7">
         <v>10101</v>
@@ -2964,22 +2968,22 @@
       <c r="L23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>39</v>
+      <c r="M23" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="7">
         <v>10207</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F24" s="7">
         <v>10101</v>
@@ -3002,23 +3006,23 @@
       <c r="L24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="9" t="s">
-        <v>41</v>
+      <c r="M24" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="IE24"/>
-    </row>
-    <row r="25" spans="3:239" ht="19.5" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="IC24"/>
+    </row>
+    <row r="25" spans="3:237" ht="19.5" customHeight="1">
       <c r="C25" s="7">
         <v>10208</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F25" s="7">
         <v>10101</v>
@@ -3041,23 +3045,23 @@
       <c r="L25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="9" t="s">
-        <v>43</v>
+      <c r="M25" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="IE25"/>
-    </row>
-    <row r="26" spans="3:239" ht="19.5" customHeight="1">
+        <v>47</v>
+      </c>
+      <c r="IC25"/>
+    </row>
+    <row r="26" spans="3:237" ht="19.5" customHeight="1">
       <c r="C26" s="7">
         <v>10209</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F26" s="7">
         <v>10101</v>
@@ -3080,23 +3084,23 @@
       <c r="L26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>45</v>
+      <c r="M26" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="IE26"/>
-    </row>
-    <row r="27" spans="3:239" ht="19.5" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="IC26"/>
+    </row>
+    <row r="27" spans="3:237" ht="19.5" customHeight="1">
       <c r="C27" s="7">
         <v>10210</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7">
         <v>10101</v>
@@ -3114,28 +3118,28 @@
         <v>126000</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="IE27"/>
-    </row>
-    <row r="28" spans="3:239" ht="22.5" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="IC27"/>
+    </row>
+    <row r="28" spans="3:237" ht="22.5" customHeight="1">
       <c r="C28" s="7">
         <v>10300</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7">
         <v>10101</v>
@@ -3158,20 +3162,20 @@
       <c r="L28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="9" t="s">
-        <v>28</v>
+      <c r="M28" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="7">
         <v>10301</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F29" s="7">
         <v>10101</v>
@@ -3194,22 +3198,22 @@
       <c r="L29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>29</v>
+      <c r="M29" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C30" s="7">
         <v>10302</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F30" s="7">
         <v>10101</v>
@@ -3232,23 +3236,23 @@
       <c r="L30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="9" t="s">
-        <v>31</v>
+      <c r="M30" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="IE30"/>
-    </row>
-    <row r="31" spans="3:239" ht="19.5" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="IC30"/>
+    </row>
+    <row r="31" spans="3:237" ht="19.5" customHeight="1">
       <c r="C31" s="7">
         <v>10303</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F31" s="7">
         <v>10101</v>
@@ -3271,23 +3275,23 @@
       <c r="L31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="9" t="s">
-        <v>33</v>
+      <c r="M31" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="IE31"/>
-    </row>
-    <row r="32" spans="3:239" ht="19.5" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="IC31"/>
+    </row>
+    <row r="32" spans="3:237" ht="19.5" customHeight="1">
       <c r="C32" s="7">
         <v>10304</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F32" s="7">
         <v>10101</v>
@@ -3310,23 +3314,23 @@
       <c r="L32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="9" t="s">
-        <v>35</v>
+      <c r="M32" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="IE32"/>
-    </row>
-    <row r="33" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="IC32"/>
+    </row>
+    <row r="33" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="7">
         <v>10305</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7">
         <v>10101</v>
@@ -3349,22 +3353,22 @@
       <c r="L33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="9" t="s">
-        <v>37</v>
+      <c r="M33" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="7">
         <v>10306</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F34" s="7">
         <v>10101</v>
@@ -3387,23 +3391,23 @@
       <c r="L34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>39</v>
+      <c r="M34" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="IE34"/>
-    </row>
-    <row r="35" spans="3:239" ht="19.5" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="IC34"/>
+    </row>
+    <row r="35" spans="3:237" ht="19.5" customHeight="1">
       <c r="C35" s="7">
         <v>10307</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F35" s="7">
         <v>10101</v>
@@ -3426,23 +3430,23 @@
       <c r="L35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="9" t="s">
-        <v>41</v>
+      <c r="M35" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="IE35"/>
-    </row>
-    <row r="36" spans="3:239" ht="19.5" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="IC35"/>
+    </row>
+    <row r="36" spans="3:237" ht="19.5" customHeight="1">
       <c r="C36" s="7">
         <v>10308</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F36" s="7">
         <v>10101</v>
@@ -3465,23 +3469,23 @@
       <c r="L36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M36" s="9" t="s">
-        <v>43</v>
+      <c r="M36" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="IE36"/>
-    </row>
-    <row r="37" spans="3:239" ht="19.5" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="IC36"/>
+    </row>
+    <row r="37" spans="3:237" ht="19.5" customHeight="1">
       <c r="C37" s="7">
         <v>10309</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F37" s="7">
         <v>10101</v>
@@ -3504,23 +3508,23 @@
       <c r="L37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="9" t="s">
-        <v>45</v>
+      <c r="M37" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="IE37"/>
-    </row>
-    <row r="38" spans="3:239" ht="19.5" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="IC37"/>
+    </row>
+    <row r="38" spans="3:237" ht="19.5" customHeight="1">
       <c r="C38" s="7">
         <v>10310</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7">
         <v>10101</v>
@@ -3538,28 +3542,28 @@
         <v>126000</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="IE38"/>
-    </row>
-    <row r="39" spans="3:239" ht="22.5" customHeight="1">
+        <v>60</v>
+      </c>
+      <c r="IC38"/>
+    </row>
+    <row r="39" spans="3:237" ht="22.5" customHeight="1">
       <c r="C39" s="7">
         <v>10400</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F39" s="7">
         <v>10201</v>
@@ -3582,20 +3586,20 @@
       <c r="L39" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>28</v>
+      <c r="M39" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C40" s="7">
         <v>10401</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F40" s="7">
         <v>10201</v>
@@ -3618,22 +3622,22 @@
       <c r="L40" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>29</v>
+      <c r="M40" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C41" s="7">
         <v>10402</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F41" s="7">
         <v>10201</v>
@@ -3656,23 +3660,23 @@
       <c r="L41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>31</v>
+      <c r="M41" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="IE41"/>
-    </row>
-    <row r="42" spans="3:239" ht="19.5" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="IC41"/>
+    </row>
+    <row r="42" spans="3:237" ht="19.5" customHeight="1">
       <c r="C42" s="7">
         <v>10403</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F42" s="7">
         <v>10201</v>
@@ -3695,23 +3699,23 @@
       <c r="L42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M42" s="9" t="s">
-        <v>33</v>
+      <c r="M42" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="IE42"/>
-    </row>
-    <row r="43" spans="3:239" ht="19.5" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="IC42"/>
+    </row>
+    <row r="43" spans="3:237" ht="19.5" customHeight="1">
       <c r="C43" s="7">
         <v>10404</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F43" s="7">
         <v>10201</v>
@@ -3734,23 +3738,23 @@
       <c r="L43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="9" t="s">
-        <v>35</v>
+      <c r="M43" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="IE43"/>
-    </row>
-    <row r="44" spans="3:239" ht="22.5" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="IC43"/>
+    </row>
+    <row r="44" spans="3:237" ht="22.5" customHeight="1">
       <c r="C44" s="7">
         <v>10405</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F44" s="7">
         <v>10201</v>
@@ -3773,22 +3777,22 @@
       <c r="L44" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M44" s="9" t="s">
-        <v>37</v>
+      <c r="M44" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C45" s="7">
         <v>10406</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F45" s="7">
         <v>10201</v>
@@ -3811,22 +3815,22 @@
       <c r="L45" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>39</v>
+      <c r="M45" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="7">
         <v>10407</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F46" s="7">
         <v>10201</v>
@@ -3849,23 +3853,23 @@
       <c r="L46" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M46" s="9" t="s">
-        <v>41</v>
+      <c r="M46" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="IE46"/>
-    </row>
-    <row r="47" spans="3:239" ht="19.5" customHeight="1">
+        <v>68</v>
+      </c>
+      <c r="IC46"/>
+    </row>
+    <row r="47" spans="3:237" ht="19.5" customHeight="1">
       <c r="C47" s="7">
         <v>10408</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F47" s="7">
         <v>10201</v>
@@ -3888,23 +3892,23 @@
       <c r="L47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M47" s="9" t="s">
-        <v>43</v>
+      <c r="M47" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="IE47"/>
-    </row>
-    <row r="48" spans="3:239" ht="19.5" customHeight="1">
+        <v>69</v>
+      </c>
+      <c r="IC47"/>
+    </row>
+    <row r="48" spans="3:237" ht="19.5" customHeight="1">
       <c r="C48" s="7">
         <v>10409</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F48" s="7">
         <v>10201</v>
@@ -3927,23 +3931,23 @@
       <c r="L48" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M48" s="9" t="s">
-        <v>45</v>
+      <c r="M48" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="IE48"/>
-    </row>
-    <row r="49" spans="3:239" ht="19.5" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="IC48"/>
+    </row>
+    <row r="49" spans="3:237" ht="19.5" customHeight="1">
       <c r="C49" s="7">
         <v>10410</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F49" s="7">
         <v>10201</v>
@@ -3961,31 +3965,31 @@
         <v>126000</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="IE49"/>
-    </row>
-    <row r="50" spans="3:239" ht="22.5" customHeight="1">
+        <v>71</v>
+      </c>
+      <c r="IC49"/>
+    </row>
+    <row r="50" spans="3:237" ht="22.5" customHeight="1">
       <c r="C50" s="7">
         <v>10500</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G50" s="7">
         <v>10501</v>
@@ -4005,23 +4009,23 @@
       <c r="L50" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M50" s="9" t="s">
-        <v>28</v>
+      <c r="M50" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="7">
         <v>10501</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G51" s="7">
         <v>10502</v>
@@ -4041,25 +4045,25 @@
       <c r="L51" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>29</v>
+      <c r="M51" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="7">
         <v>10502</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G52" s="7">
         <v>10503</v>
@@ -4079,26 +4083,26 @@
       <c r="L52" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M52" s="9" t="s">
-        <v>31</v>
+      <c r="M52" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="IE52"/>
-    </row>
-    <row r="53" spans="3:239" ht="19.5" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="IC52"/>
+    </row>
+    <row r="53" spans="3:237" ht="19.5" customHeight="1">
       <c r="C53" s="7">
         <v>10503</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G53" s="7">
         <v>10504</v>
@@ -4118,26 +4122,26 @@
       <c r="L53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M53" s="9" t="s">
-        <v>33</v>
+      <c r="M53" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="IE53"/>
-    </row>
-    <row r="54" spans="3:239" ht="19.5" customHeight="1">
+        <v>76</v>
+      </c>
+      <c r="IC53"/>
+    </row>
+    <row r="54" spans="3:237" ht="19.5" customHeight="1">
       <c r="C54" s="7">
         <v>10504</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G54" s="7">
         <v>10505</v>
@@ -4157,26 +4161,26 @@
       <c r="L54" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M54" s="9" t="s">
-        <v>35</v>
+      <c r="M54" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="IE54"/>
-    </row>
-    <row r="55" spans="3:239" ht="22.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="IC54"/>
+    </row>
+    <row r="55" spans="3:237" ht="22.5" customHeight="1">
       <c r="C55" s="7">
         <v>10505</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G55" s="7">
         <v>10506</v>
@@ -4196,25 +4200,25 @@
       <c r="L55" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M55" s="9" t="s">
-        <v>37</v>
+      <c r="M55" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C56" s="7">
         <v>10506</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G56" s="7">
         <v>10507</v>
@@ -4234,25 +4238,25 @@
       <c r="L56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M56" s="9" t="s">
-        <v>39</v>
+      <c r="M56" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C57" s="7">
         <v>10507</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G57" s="7">
         <v>10508</v>
@@ -4272,26 +4276,26 @@
       <c r="L57" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M57" s="9" t="s">
-        <v>41</v>
+      <c r="M57" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="IE57"/>
-    </row>
-    <row r="58" spans="3:239" ht="19.5" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="IC57"/>
+    </row>
+    <row r="58" spans="3:237" ht="19.5" customHeight="1">
       <c r="C58" s="7">
         <v>10508</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G58" s="7">
         <v>10509</v>
@@ -4311,26 +4315,26 @@
       <c r="L58" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M58" s="9" t="s">
-        <v>43</v>
+      <c r="M58" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="IE58"/>
-    </row>
-    <row r="59" spans="3:239" ht="19.5" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="IC58"/>
+    </row>
+    <row r="59" spans="3:237" ht="19.5" customHeight="1">
       <c r="C59" s="7">
         <v>10509</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G59" s="7">
         <v>10510</v>
@@ -4350,26 +4354,26 @@
       <c r="L59" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M59" s="9" t="s">
-        <v>45</v>
+      <c r="M59" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="IE59"/>
-    </row>
-    <row r="60" spans="3:239" ht="19.5" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="IC59"/>
+    </row>
+    <row r="60" spans="3:237" ht="19.5" customHeight="1">
       <c r="C60" s="7">
         <v>10510</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G60" s="7">
         <v>0</v>
@@ -4384,28 +4388,28 @@
         <v>126000</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="IE60"/>
-    </row>
-    <row r="61" spans="3:239" ht="22.5" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="IC60"/>
+    </row>
+    <row r="61" spans="3:237" ht="22.5" customHeight="1">
       <c r="C61" s="7">
         <v>10600</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F61" s="7">
         <v>10301</v>
@@ -4428,20 +4432,20 @@
       <c r="L61" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M61" s="9" t="s">
-        <v>28</v>
+      <c r="M61" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C62" s="7">
         <v>10601</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F62" s="7">
         <v>10301</v>
@@ -4464,22 +4468,22 @@
       <c r="L62" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M62" s="9" t="s">
-        <v>29</v>
+      <c r="M62" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C63" s="7">
         <v>10602</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F63" s="7">
         <v>10301</v>
@@ -4502,23 +4506,23 @@
       <c r="L63" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M63" s="9" t="s">
-        <v>31</v>
+      <c r="M63" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="IE63"/>
-    </row>
-    <row r="64" spans="3:239" ht="19.5" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="IC63"/>
+    </row>
+    <row r="64" spans="3:237" ht="19.5" customHeight="1">
       <c r="C64" s="7">
         <v>10603</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F64" s="7">
         <v>10301</v>
@@ -4541,23 +4545,23 @@
       <c r="L64" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M64" s="9" t="s">
-        <v>33</v>
+      <c r="M64" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="IE64"/>
-    </row>
-    <row r="65" spans="3:239" ht="19.5" customHeight="1">
+        <v>87</v>
+      </c>
+      <c r="IC64"/>
+    </row>
+    <row r="65" spans="3:237" ht="19.5" customHeight="1">
       <c r="C65" s="7">
         <v>10604</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F65" s="7">
         <v>10301</v>
@@ -4580,23 +4584,23 @@
       <c r="L65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M65" s="9" t="s">
-        <v>35</v>
+      <c r="M65" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="IE65"/>
-    </row>
-    <row r="66" spans="3:239" ht="22.5" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="IC65"/>
+    </row>
+    <row r="66" spans="3:237" ht="22.5" customHeight="1">
       <c r="C66" s="7">
         <v>10605</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F66" s="7">
         <v>10301</v>
@@ -4619,22 +4623,22 @@
       <c r="L66" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M66" s="9" t="s">
-        <v>37</v>
+      <c r="M66" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C67" s="7">
         <v>10606</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F67" s="7">
         <v>10301</v>
@@ -4657,22 +4661,22 @@
       <c r="L67" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M67" s="9" t="s">
-        <v>39</v>
+      <c r="M67" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C68" s="7">
         <v>10607</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F68" s="7">
         <v>10301</v>
@@ -4695,23 +4699,23 @@
       <c r="L68" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M68" s="9" t="s">
-        <v>41</v>
+      <c r="M68" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="IE68"/>
-    </row>
-    <row r="69" spans="3:239" ht="19.5" customHeight="1">
+        <v>91</v>
+      </c>
+      <c r="IC68"/>
+    </row>
+    <row r="69" spans="3:237" ht="19.5" customHeight="1">
       <c r="C69" s="7">
         <v>10608</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F69" s="7">
         <v>10301</v>
@@ -4734,23 +4738,23 @@
       <c r="L69" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M69" s="9" t="s">
-        <v>43</v>
+      <c r="M69" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="IE69"/>
-    </row>
-    <row r="70" spans="3:239" ht="19.5" customHeight="1">
+        <v>92</v>
+      </c>
+      <c r="IC69"/>
+    </row>
+    <row r="70" spans="3:237" ht="19.5" customHeight="1">
       <c r="C70" s="7">
         <v>10609</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F70" s="7">
         <v>10301</v>
@@ -4773,23 +4777,23 @@
       <c r="L70" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M70" s="9" t="s">
-        <v>45</v>
+      <c r="M70" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="IE70"/>
-    </row>
-    <row r="71" spans="3:239" ht="19.5" customHeight="1">
+        <v>93</v>
+      </c>
+      <c r="IC70"/>
+    </row>
+    <row r="71" spans="3:237" ht="19.5" customHeight="1">
       <c r="C71" s="7">
         <v>10610</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F71" s="7">
         <v>10301</v>
@@ -4807,31 +4811,31 @@
         <v>126000</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="IE71"/>
-    </row>
-    <row r="72" spans="3:239" ht="22.5" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="IC71"/>
+    </row>
+    <row r="72" spans="3:237" ht="22.5" customHeight="1">
       <c r="C72" s="7">
         <v>10700</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G72" s="7">
         <v>10701</v>
@@ -4851,23 +4855,23 @@
       <c r="L72" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="9" t="s">
-        <v>28</v>
+      <c r="M72" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C73" s="7">
         <v>10701</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G73" s="7">
         <v>10702</v>
@@ -4887,25 +4891,25 @@
       <c r="L73" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M73" s="9" t="s">
-        <v>29</v>
+      <c r="M73" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C74" s="7">
         <v>10702</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G74" s="7">
         <v>10703</v>
@@ -4925,26 +4929,26 @@
       <c r="L74" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M74" s="9" t="s">
-        <v>31</v>
+      <c r="M74" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="IE74"/>
-    </row>
-    <row r="75" spans="3:239" ht="19.5" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="IC74"/>
+    </row>
+    <row r="75" spans="3:237" ht="19.5" customHeight="1">
       <c r="C75" s="7">
         <v>10703</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G75" s="7">
         <v>10704</v>
@@ -4964,26 +4968,26 @@
       <c r="L75" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M75" s="9" t="s">
-        <v>33</v>
+      <c r="M75" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="IE75"/>
-    </row>
-    <row r="76" spans="3:239" ht="19.5" customHeight="1">
+        <v>99</v>
+      </c>
+      <c r="IC75"/>
+    </row>
+    <row r="76" spans="3:237" ht="19.5" customHeight="1">
       <c r="C76" s="7">
         <v>10704</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G76" s="7">
         <v>10705</v>
@@ -5003,26 +5007,26 @@
       <c r="L76" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M76" s="9" t="s">
-        <v>35</v>
+      <c r="M76" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="IE76"/>
-    </row>
-    <row r="77" spans="3:239" ht="22.5" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="IC76"/>
+    </row>
+    <row r="77" spans="3:237" ht="22.5" customHeight="1">
       <c r="C77" s="7">
         <v>10705</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G77" s="7">
         <v>10706</v>
@@ -5042,25 +5046,25 @@
       <c r="L77" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M77" s="9" t="s">
-        <v>37</v>
+      <c r="M77" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="N77" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C78" s="7">
         <v>10706</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G78" s="7">
         <v>10707</v>
@@ -5080,25 +5084,25 @@
       <c r="L78" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M78" s="9" t="s">
-        <v>39</v>
+      <c r="M78" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C79" s="7">
         <v>10707</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G79" s="7">
         <v>10708</v>
@@ -5118,26 +5122,26 @@
       <c r="L79" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M79" s="9" t="s">
-        <v>41</v>
+      <c r="M79" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="IE79"/>
-    </row>
-    <row r="80" spans="3:239" ht="19.5" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="IC79"/>
+    </row>
+    <row r="80" spans="3:237" ht="19.5" customHeight="1">
       <c r="C80" s="7">
         <v>10708</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G80" s="7">
         <v>10709</v>
@@ -5157,26 +5161,26 @@
       <c r="L80" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M80" s="9" t="s">
-        <v>43</v>
+      <c r="M80" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="IE80"/>
-    </row>
-    <row r="81" spans="3:239" ht="19.5" customHeight="1">
+        <v>104</v>
+      </c>
+      <c r="IC80"/>
+    </row>
+    <row r="81" spans="3:237" ht="19.5" customHeight="1">
       <c r="C81" s="7">
         <v>10709</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G81" s="7">
         <v>10710</v>
@@ -5196,26 +5200,26 @@
       <c r="L81" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M81" s="9" t="s">
-        <v>45</v>
+      <c r="M81" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="IE81"/>
-    </row>
-    <row r="82" spans="3:239" ht="19.5" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="IC81"/>
+    </row>
+    <row r="82" spans="3:237" ht="19.5" customHeight="1">
       <c r="C82" s="7">
         <v>10710</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G82" s="7">
         <v>0</v>
@@ -5230,31 +5234,31 @@
         <v>126000</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="IE82"/>
-    </row>
-    <row r="83" spans="3:239" ht="22.5" customHeight="1">
+        <v>106</v>
+      </c>
+      <c r="IC82"/>
+    </row>
+    <row r="83" spans="3:237" ht="22.5" customHeight="1">
       <c r="C83" s="7">
         <v>10800</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G83" s="7">
         <v>10801</v>
@@ -5274,23 +5278,23 @@
       <c r="L83" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M83" s="9" t="s">
-        <v>28</v>
+      <c r="M83" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="7">
         <v>10801</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G84" s="7">
         <v>10802</v>
@@ -5310,25 +5314,25 @@
       <c r="L84" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M84" s="9" t="s">
-        <v>29</v>
+      <c r="M84" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="7">
         <v>10802</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G85" s="7">
         <v>10803</v>
@@ -5348,26 +5352,26 @@
       <c r="L85" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M85" s="9" t="s">
-        <v>31</v>
+      <c r="M85" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="IE85"/>
-    </row>
-    <row r="86" spans="3:239" ht="19.5" customHeight="1">
+        <v>110</v>
+      </c>
+      <c r="IC85"/>
+    </row>
+    <row r="86" spans="3:237" ht="19.5" customHeight="1">
       <c r="C86" s="7">
         <v>10803</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G86" s="7">
         <v>10804</v>
@@ -5387,26 +5391,26 @@
       <c r="L86" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M86" s="9" t="s">
-        <v>33</v>
+      <c r="M86" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="IE86"/>
-    </row>
-    <row r="87" spans="3:239" ht="19.5" customHeight="1">
+        <v>111</v>
+      </c>
+      <c r="IC86"/>
+    </row>
+    <row r="87" spans="3:237" ht="19.5" customHeight="1">
       <c r="C87" s="7">
         <v>10804</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G87" s="7">
         <v>10805</v>
@@ -5426,26 +5430,26 @@
       <c r="L87" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M87" s="9" t="s">
-        <v>35</v>
+      <c r="M87" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="IE87"/>
-    </row>
-    <row r="88" spans="3:239" ht="22.5" customHeight="1">
+        <v>112</v>
+      </c>
+      <c r="IC87"/>
+    </row>
+    <row r="88" spans="3:237" ht="22.5" customHeight="1">
       <c r="C88" s="7">
         <v>10805</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G88" s="7">
         <v>10806</v>
@@ -5465,25 +5469,25 @@
       <c r="L88" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M88" s="9" t="s">
-        <v>37</v>
+      <c r="M88" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="7">
         <v>10806</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G89" s="7">
         <v>10807</v>
@@ -5503,25 +5507,25 @@
       <c r="L89" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M89" s="9" t="s">
-        <v>39</v>
+      <c r="M89" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="7">
         <v>10807</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G90" s="7">
         <v>10808</v>
@@ -5541,26 +5545,26 @@
       <c r="L90" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M90" s="9" t="s">
-        <v>41</v>
+      <c r="M90" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="IE90"/>
-    </row>
-    <row r="91" spans="3:239" ht="19.5" customHeight="1">
+        <v>115</v>
+      </c>
+      <c r="IC90"/>
+    </row>
+    <row r="91" spans="3:237" ht="19.5" customHeight="1">
       <c r="C91" s="7">
         <v>10808</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G91" s="7">
         <v>10809</v>
@@ -5580,26 +5584,26 @@
       <c r="L91" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M91" s="9" t="s">
-        <v>43</v>
+      <c r="M91" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="IE91"/>
-    </row>
-    <row r="92" spans="3:239" ht="19.5" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="IC91"/>
+    </row>
+    <row r="92" spans="3:237" ht="19.5" customHeight="1">
       <c r="C92" s="7">
         <v>10809</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G92" s="7">
         <v>10810</v>
@@ -5619,26 +5623,26 @@
       <c r="L92" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M92" s="9" t="s">
-        <v>45</v>
+      <c r="M92" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="IE92"/>
-    </row>
-    <row r="93" spans="3:239" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="IC92"/>
+    </row>
+    <row r="93" spans="3:237" ht="19.5" customHeight="1">
       <c r="C93" s="7">
         <v>10810</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G93" s="7">
         <v>0</v>
@@ -5653,31 +5657,31 @@
         <v>126000</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="IE93"/>
-    </row>
-    <row r="94" spans="3:239" ht="22.5" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="IC93"/>
+    </row>
+    <row r="94" spans="3:237" ht="22.5" customHeight="1">
       <c r="C94" s="7">
         <v>10900</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G94" s="7">
         <v>10901</v>
@@ -5697,23 +5701,23 @@
       <c r="L94" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M94" s="9" t="s">
-        <v>28</v>
+      <c r="M94" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="3:239" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="7">
         <v>10901</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G95" s="7">
         <v>10902</v>
@@ -5733,25 +5737,25 @@
       <c r="L95" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M95" s="9" t="s">
-        <v>29</v>
+      <c r="M95" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C96" s="7">
         <v>10902</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G96" s="7">
         <v>10903</v>
@@ -5771,26 +5775,26 @@
       <c r="L96" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M96" s="9" t="s">
-        <v>31</v>
+      <c r="M96" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="IE96"/>
-    </row>
-    <row r="97" spans="3:239" ht="19.5" customHeight="1">
+        <v>110</v>
+      </c>
+      <c r="IC96"/>
+    </row>
+    <row r="97" spans="3:237" ht="19.5" customHeight="1">
       <c r="C97" s="7">
         <v>10903</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G97" s="7">
         <v>10904</v>
@@ -5810,26 +5814,26 @@
       <c r="L97" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M97" s="9" t="s">
-        <v>33</v>
+      <c r="M97" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="IE97"/>
-    </row>
-    <row r="98" spans="3:239" ht="19.5" customHeight="1">
+        <v>111</v>
+      </c>
+      <c r="IC97"/>
+    </row>
+    <row r="98" spans="3:237" ht="19.5" customHeight="1">
       <c r="C98" s="7">
         <v>10904</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G98" s="7">
         <v>10905</v>
@@ -5849,26 +5853,26 @@
       <c r="L98" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M98" s="9" t="s">
-        <v>35</v>
+      <c r="M98" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="IE98"/>
-    </row>
-    <row r="99" spans="3:239" ht="22.5" customHeight="1">
+        <v>112</v>
+      </c>
+      <c r="IC98"/>
+    </row>
+    <row r="99" spans="3:237" ht="22.5" customHeight="1">
       <c r="C99" s="7">
         <v>10905</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G99" s="7">
         <v>10906</v>
@@ -5888,25 +5892,25 @@
       <c r="L99" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M99" s="9" t="s">
-        <v>37</v>
+      <c r="M99" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C100" s="7">
         <v>10906</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G100" s="7">
         <v>10907</v>
@@ -5926,25 +5930,25 @@
       <c r="L100" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M100" s="9" t="s">
-        <v>39</v>
+      <c r="M100" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="3:239" ht="20.100000000000001" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C101" s="7">
         <v>10907</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G101" s="7">
         <v>10908</v>
@@ -5964,26 +5968,26 @@
       <c r="L101" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M101" s="9" t="s">
-        <v>41</v>
+      <c r="M101" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="IE101"/>
-    </row>
-    <row r="102" spans="3:239" ht="19.5" customHeight="1">
+        <v>115</v>
+      </c>
+      <c r="IC101"/>
+    </row>
+    <row r="102" spans="3:237" ht="19.5" customHeight="1">
       <c r="C102" s="7">
         <v>10908</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G102" s="7">
         <v>10909</v>
@@ -6003,26 +6007,26 @@
       <c r="L102" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M102" s="9" t="s">
-        <v>43</v>
+      <c r="M102" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="IE102"/>
-    </row>
-    <row r="103" spans="3:239" ht="19.5" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="IC102"/>
+    </row>
+    <row r="103" spans="3:237" ht="19.5" customHeight="1">
       <c r="C103" s="7">
         <v>10909</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G103" s="7">
         <v>10910</v>
@@ -6042,26 +6046,26 @@
       <c r="L103" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M103" s="9" t="s">
-        <v>45</v>
+      <c r="M103" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="IE103"/>
-    </row>
-    <row r="104" spans="3:239" ht="19.5" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="IC103"/>
+    </row>
+    <row r="104" spans="3:237" ht="19.5" customHeight="1">
       <c r="C104" s="7">
         <v>10910</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G104" s="7">
         <v>0</v>
@@ -6076,18 +6080,18 @@
         <v>126000</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="IE104"/>
+        <v>118</v>
+      </c>
+      <c r="IC104"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
